--- a/biology/Zoologie/Echinozoa/Echinozoa.xlsx
+++ b/biology/Zoologie/Echinozoa/Echinozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinozoa sont un sous-embranchement d'échinodermes qui rassemble les oursins et les holothuries (concombres de mer).
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinozoa sont des échinodermes généralement sessiles, au corps plus ou moins globulaire, marqué par une symétrie radiale découpée en méridiens. Ces animaux n'ont ni bras ni aucun autre macro-appendice charnu ou empenné, mais sont généralement pourvus de podia, et éventuellement de tentacules buccaux.
 </t>
@@ -542,10 +556,12 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La division de ce groupe en classes semble être très ancienne, des fossiles d'oursins et d'holothuries de forme caractéristique étant trouvés dès l'Ordovicien[1],[2].
-Les Ophiocistioidea pourraient être les ancêtres des holothuries, malgré leur apparence qui les rapproche plus des oursins et des ophiures[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La division de ce groupe en classes semble être très ancienne, des fossiles d'oursins et d'holothuries de forme caractéristique étant trouvés dès l'Ordovicien,.
+Les Ophiocistioidea pourraient être les ancêtres des holothuries, malgré leur apparence qui les rapproche plus des oursins et des ophiures.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (24 novembre 2013)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (24 novembre 2013) :
 classe Echinoidea Leske, 1778 — oursins
 sous-classe Cidaroidea Smith, 1984
 sous-classe Euechinoidea Bronn, 1860
@@ -608,13 +626,15 @@
           <t>Classes fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Classes fossiles selon BioLib                    (20 avril 2018)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classes fossiles selon BioLib                    (20 avril 2018) :
 † classe Cyclocystoidea Miller &amp; Gurley, 1895
 † classe Edrioblastoidea Fay, 1962
-† classe Helicoplacoidea Durham (d) &amp; Caster (d), 1963[6]
-† classe Ophiocistioidea Sollas, 1899[7]
+† classe Helicoplacoidea Durham (d) &amp; Caster (d), 1963
+† classe Ophiocistioidea Sollas, 1899
 </t>
         </is>
       </c>
